--- a/вк.xlsx
+++ b/вк.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="Workbook________"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Камилла\Desktop\Тестировщик\6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Камилла\Desktop\Тестировщик\9\Test-keys\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="103">
   <si>
     <t>passed</t>
   </si>
@@ -434,7 +434,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,6 +613,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -747,7 +756,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -861,6 +870,22 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -876,22 +901,7 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1289,10 +1299,10 @@
   <dimension ref="A1:DT62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1336,7 +1346,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="16">
         <f>COUNTIF(L$8:L$43,"failed")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="16">
@@ -1381,7 +1391,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="17">
         <f>COUNTIF(L$8:L$43,"passed")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="17">
@@ -1440,7 +1450,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:124" hidden="1">
+    <row r="4" spans="1:124" ht="23.25" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -1454,7 +1464,9 @@
         <v>8</v>
       </c>
       <c r="K4" s="11"/>
-      <c r="L4" s="19"/>
+      <c r="L4" s="22">
+        <v>43912</v>
+      </c>
       <c r="M4" s="11"/>
       <c r="O4" s="11"/>
       <c r="Q4" s="11"/>
@@ -1466,7 +1478,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:124" ht="17.25" customHeight="1">
+    <row r="5" spans="1:124" ht="48" customHeight="1">
       <c r="A5" s="12"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -1508,43 +1520,43 @@
     </row>
     <row r="6" spans="1:124" ht="17.25" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="48" t="s">
+      <c r="F6" s="49"/>
+      <c r="G6" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="45" t="s">
+      <c r="I6" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="51"/>
+      <c r="J6" s="45"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="50" t="s">
+      <c r="L6" s="44" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="50" t="s">
+      <c r="N6" s="44" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="50"/>
+      <c r="P6" s="44"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="50"/>
+      <c r="R6" s="44"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="50"/>
+      <c r="T6" s="44"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1554,29 +1566,29 @@
     </row>
     <row r="7" spans="1:124" ht="111" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="44"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="52"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="46"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="50"/>
+      <c r="L7" s="44"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="50"/>
+      <c r="N7" s="44"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="50"/>
+      <c r="P7" s="44"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="50"/>
+      <c r="R7" s="44"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="50"/>
+      <c r="T7" s="44"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1606,7 +1618,9 @@
       <c r="I8" s="21"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="6"/>
       <c r="O8" s="11"/>
@@ -1640,7 +1654,9 @@
       <c r="I9" s="21"/>
       <c r="J9" s="20"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="54" t="s">
+        <v>1</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="6"/>
       <c r="O9" s="11"/>
@@ -1712,7 +1728,9 @@
       <c r="I11" s="21"/>
       <c r="J11" s="20"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="6"/>
+      <c r="L11" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M11" s="11"/>
       <c r="N11" s="6"/>
       <c r="O11" s="11"/>
@@ -1882,7 +1900,9 @@
       <c r="I13" s="21"/>
       <c r="J13" s="20"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="6"/>
+      <c r="L13" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M13" s="11"/>
       <c r="N13" s="6"/>
       <c r="O13" s="11"/>
@@ -1920,7 +1940,9 @@
       <c r="I14" s="21"/>
       <c r="J14" s="20"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="6"/>
+      <c r="L14" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M14" s="11"/>
       <c r="N14" s="6"/>
       <c r="O14" s="11"/>
@@ -1958,7 +1980,9 @@
       <c r="I15" s="21"/>
       <c r="J15" s="20"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M15" s="11"/>
       <c r="N15" s="6"/>
       <c r="O15" s="11"/>
@@ -1994,7 +2018,9 @@
       <c r="I16" s="21"/>
       <c r="J16" s="20"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="6"/>
+      <c r="L16" s="54" t="s">
+        <v>1</v>
+      </c>
       <c r="M16" s="11"/>
       <c r="N16" s="6"/>
       <c r="O16" s="11"/>
@@ -2032,7 +2058,9 @@
       <c r="I17" s="21"/>
       <c r="J17" s="20"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="6"/>
+      <c r="L17" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M17" s="11"/>
       <c r="N17" s="6"/>
       <c r="O17" s="11"/>
@@ -2287,7 +2315,9 @@
       <c r="I24" s="21"/>
       <c r="J24" s="20"/>
       <c r="K24" s="10"/>
-      <c r="L24" s="6"/>
+      <c r="L24" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M24" s="11"/>
       <c r="N24" s="6"/>
       <c r="O24" s="11"/>
@@ -2323,7 +2353,9 @@
       <c r="I25" s="21"/>
       <c r="J25" s="20"/>
       <c r="K25" s="10"/>
-      <c r="L25" s="6"/>
+      <c r="L25" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M25" s="11"/>
       <c r="N25" s="6"/>
       <c r="O25" s="11"/>
@@ -2359,7 +2391,9 @@
       <c r="I26" s="21"/>
       <c r="J26" s="20"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="6"/>
+      <c r="L26" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M26" s="11"/>
       <c r="N26" s="6"/>
       <c r="O26" s="11"/>
@@ -2561,7 +2595,7 @@
         <v>24</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="53" t="s">
+      <c r="D32" s="43" t="s">
         <v>97</v>
       </c>
       <c r="E32" s="7" t="s">
@@ -3386,6 +3420,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3393,12 +3433,6 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L13:L43 R13:R43 P13:P43 T13:T43 T8:T11 P8:P11 R8:R11 L8:L11 N8:N11 N13:N43">

--- a/вк.xlsx
+++ b/вк.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="103">
   <si>
     <t>passed</t>
   </si>
@@ -871,6 +871,28 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -880,28 +902,6 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1299,10 +1299,10 @@
   <dimension ref="A1:DT62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1346,7 +1346,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="16">
         <f>COUNTIF(L$8:L$43,"failed")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="16">
@@ -1391,7 +1391,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="17">
         <f>COUNTIF(L$8:L$43,"passed")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="17">
@@ -1520,43 +1520,43 @@
     </row>
     <row r="6" spans="1:124" ht="17.25" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="47" t="s">
+      <c r="F6" s="45"/>
+      <c r="G6" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="45"/>
+      <c r="J6" s="53"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="44" t="s">
+      <c r="L6" s="52" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="52" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="44"/>
+      <c r="P6" s="52"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="44"/>
+      <c r="R6" s="52"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="44"/>
+      <c r="T6" s="52"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1566,29 +1566,29 @@
     </row>
     <row r="7" spans="1:124" ht="111" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="50"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="46"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="44"/>
+      <c r="L7" s="52"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="44"/>
+      <c r="N7" s="52"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="44"/>
+      <c r="P7" s="52"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="44"/>
+      <c r="R7" s="52"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="44"/>
+      <c r="T7" s="52"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1654,7 +1654,7 @@
       <c r="I9" s="21"/>
       <c r="J9" s="20"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="54" t="s">
+      <c r="L9" s="44" t="s">
         <v>1</v>
       </c>
       <c r="M9" s="11"/>
@@ -2018,7 +2018,7 @@
       <c r="I16" s="21"/>
       <c r="J16" s="20"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="54" t="s">
+      <c r="L16" s="44" t="s">
         <v>1</v>
       </c>
       <c r="M16" s="11"/>
@@ -2095,7 +2095,9 @@
       <c r="I18" s="21"/>
       <c r="J18" s="20"/>
       <c r="K18" s="10"/>
-      <c r="L18" s="6"/>
+      <c r="L18" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M18" s="11"/>
       <c r="N18" s="6"/>
       <c r="O18" s="11"/>
@@ -2133,7 +2135,9 @@
       <c r="I19" s="21"/>
       <c r="J19" s="20"/>
       <c r="K19" s="10"/>
-      <c r="L19" s="6"/>
+      <c r="L19" s="44" t="s">
+        <v>1</v>
+      </c>
       <c r="M19" s="11"/>
       <c r="N19" s="6"/>
       <c r="O19" s="11"/>
@@ -3420,12 +3424,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3433,6 +3431,12 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L13:L43 R13:R43 P13:P43 T13:T43 T8:T11 P8:P11 R8:R11 L8:L11 N8:N11 N13:N43">
